--- a/bang.xlsx
+++ b/bang.xlsx
@@ -348,7 +348,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
+      <xdr:colOff>115200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>81720</xdr:rowOff>
     </xdr:from>
@@ -356,7 +356,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>58320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -369,8 +369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16103880" y="900720"/>
-          <a:ext cx="8198640" cy="3309120"/>
+          <a:off x="16095960" y="900720"/>
+          <a:ext cx="8191800" cy="3308760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -393,10 +393,10 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="2" style="2" width="9.28"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -702,7 +702,7 @@
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="7" t="n">
         <v>1</v>
